--- a/doc/cdc/PSA-Ecran-bdd.xlsx
+++ b/doc/cdc/PSA-Ecran-bdd.xlsx
@@ -171,9 +171,6 @@
     <t>date_upload</t>
   </si>
   <si>
-    <t>fk_utilisateur</t>
-  </si>
-  <si>
     <t>Qui a uploader le fichier</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>Déjà en place</t>
+  </si>
+  <si>
+    <t>user_id</t>
   </si>
 </sst>
 </file>
@@ -415,6 +415,8 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,8 +453,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,7 +761,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="C1" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -779,10 +779,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -793,26 +793,26 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,7 +821,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A8" s="11"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -833,7 +833,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -855,19 +855,19 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -881,7 +881,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
@@ -891,8 +891,8 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A14" s="12"/>
-      <c r="B14" s="14" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -903,8 +903,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="16"/>
       <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
@@ -913,8 +913,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="15" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -925,8 +925,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A17" s="12"/>
-      <c r="B17" s="15"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
@@ -935,7 +935,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A18" s="12"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -947,8 +947,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -959,8 +959,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A20" s="12"/>
-      <c r="B20" s="15"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="17"/>
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
@@ -986,8 +986,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1009,206 +1009,206 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="24"/>
+      <c r="C3" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="20"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="24" t="s">
-        <v>71</v>
+      <c r="C4" s="18"/>
+      <c r="D4" s="12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="20"/>
+      <c r="A5" s="22"/>
       <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="24"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="20"/>
+      <c r="A6" s="22"/>
       <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="20"/>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="24"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>53</v>
+      <c r="C8" s="23" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="11"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="11"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="11"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="21"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="11"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="11"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="21"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="11"/>
-      <c r="B14" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="21"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="20" t="s">
-        <v>57</v>
+      <c r="A15" s="22" t="s">
+        <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="23" t="s">
-        <v>70</v>
+      <c r="C15" s="18"/>
+      <c r="D15" s="11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="20"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="22"/>
+      <c r="B17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="23"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="20"/>
-      <c r="B17" s="5" t="s">
+      <c r="C17" s="18"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="22"/>
+      <c r="B18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="22"/>
+      <c r="B19" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="23"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="20"/>
-      <c r="B18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="16"/>
-      <c r="D18" s="23"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="20"/>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="16"/>
-      <c r="D19" s="23"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="23"/>
+      <c r="C20" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="11"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="17" t="s">
-        <v>61</v>
+      <c r="A22" s="19" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>69</v>
+      <c r="C22" s="18" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="18"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="20"/>
+      <c r="B24" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="16"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="18"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="20"/>
+      <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="16"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="16"/>
+      <c r="C25" s="18"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="19"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="16"/>
+      <c r="C26" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/doc/cdc/PSA-Ecran-bdd.xlsx
+++ b/doc/cdc/PSA-Ecran-bdd.xlsx
@@ -198,9 +198,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Contacts</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   </si>
   <si>
     <t>user_id</t>
+  </si>
+  <si>
+    <t>Messages</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -417,6 +417,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -761,7 +764,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="C1" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -779,10 +782,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="16" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -793,26 +796,26 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="15"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
@@ -821,7 +824,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -833,7 +836,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
@@ -843,7 +846,7 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
@@ -855,19 +858,19 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -881,7 +884,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A13" s="14"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="4" t="s">
         <v>21</v>
       </c>
@@ -891,8 +894,8 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="16" t="s">
+      <c r="A14" s="15"/>
+      <c r="B14" s="17" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -903,8 +906,8 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="3" t="s">
         <v>26</v>
       </c>
@@ -913,8 +916,8 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="4" t="s">
@@ -925,8 +928,8 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="4" t="s">
         <v>30</v>
       </c>
@@ -935,7 +938,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="3" t="s">
         <v>31</v>
       </c>
@@ -947,8 +950,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="17" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -959,8 +962,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
         <v>36</v>
       </c>
@@ -986,8 +989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1009,206 +1012,206 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D3" s="12"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="19"/>
       <c r="D4" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="22"/>
+      <c r="A5" s="23"/>
       <c r="B5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="18"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="12"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="22"/>
+      <c r="A6" s="23"/>
       <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="18"/>
+      <c r="C6" s="19"/>
       <c r="D6" s="12"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="22"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="18"/>
+        <v>70</v>
+      </c>
+      <c r="C7" s="19"/>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="24" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="24"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="24"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="24"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" s="23"/>
+        <v>70</v>
+      </c>
+      <c r="C14" s="24"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="23" t="s">
         <v>56</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="18"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="22"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="18"/>
+      <c r="C16" s="19"/>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="22"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="18"/>
+      <c r="C17" s="19"/>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="22"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="18"/>
+      <c r="C18" s="19"/>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="22"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="18"/>
+      <c r="C19" s="19"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>55</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>64</v>
+      <c r="C20" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="23"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="19" t="s">
-        <v>60</v>
+      <c r="A22" s="20" t="s">
+        <v>71</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>68</v>
+      <c r="C22" s="19" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="19"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="21"/>
+      <c r="B24" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="18"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="20"/>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="19"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="21"/>
+      <c r="B25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="18"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="20"/>
-      <c r="B25" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="18"/>
+      <c r="C25" s="19"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="21"/>
+      <c r="A26" s="22"/>
       <c r="B26" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="18"/>
+      <c r="C26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="10">
